--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3736532.612146732</v>
+        <v>3839944.348110812</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7433293.556661086</v>
+        <v>7398263.835388332</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>50.7176431919322</v>
       </c>
       <c r="I2" t="n">
-        <v>5.246717585354876</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -865,7 +867,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>69.78817203509104</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>49.68400593664609</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>141.7391374254001</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -947,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>91.86872394650645</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1054,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>101.7223804764549</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>211.7493878560656</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>293.7629027650899</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>40.7069548508417</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>35.70635721786167</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>35.01527374485252</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,13 +1350,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>78.71385496658309</v>
       </c>
       <c r="C13" t="n">
-        <v>62.36981422367101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>98.2054987677615</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>182.4326803923967</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,19 +2058,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2767670237428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
         <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701348</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>64.8004943105977</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.9742079424025</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>139.511541534052</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>244.6551177944159</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695612</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D28" t="n">
-        <v>30.97191586387646</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>215.2549371307882</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>185.7223172888182</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>106.3652565620455</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>68.41584059195296</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>165.3888470662397</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308927</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>38.19083539427159</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>30.06830131405788</v>
       </c>
       <c r="C46" t="n">
-        <v>0.012762354735504</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2308.470254646115</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1939.507737705704</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D2" t="n">
-        <v>1581.242039098953</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="E2" t="n">
-        <v>1195.453786500709</v>
+        <v>177.7165046746309</v>
       </c>
       <c r="F2" t="n">
-        <v>784.4678817111014</v>
+        <v>170.7710039254275</v>
       </c>
       <c r="G2" t="n">
-        <v>369.3954315560979</v>
+        <v>159.738957810828</v>
       </c>
       <c r="H2" t="n">
-        <v>71.81183116486511</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4331,7 +4333,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3072.075344883007</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2698.609586621927</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2308.470254646115</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.3899067494191</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="C4" t="n">
-        <v>479.4537238215122</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1256.101505475442</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621296</v>
+        <v>1256.101505475442</v>
       </c>
       <c r="X4" t="n">
-        <v>830.0383715796588</v>
+        <v>1028.111954577424</v>
       </c>
       <c r="Y4" t="n">
-        <v>830.0383715796588</v>
+        <v>807.3193754338942</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3122.518462281207</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3122.518462281207</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2791.455574937636</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2438.686919667522</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2065.221161406442</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
@@ -4659,7 +4661,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>561.3907139632879</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C7" t="n">
-        <v>458.6408346941415</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040962</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835075</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.821308835075</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X7" t="n">
-        <v>963.8317579370578</v>
+        <v>1177.205447905277</v>
       </c>
       <c r="Y7" t="n">
-        <v>743.0391787935276</v>
+        <v>956.4128687617472</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="C8" t="n">
         <v>1617.939223126803</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3284.487685396199</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3078.509937780421</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3078.509937780421</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2747.447050436851</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2394.678395166736</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4902,7 +4904,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4911,16 +4913,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.7094242895083</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C10" t="n">
-        <v>396.7094242895083</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D10" t="n">
-        <v>396.7094242895083</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E10" t="n">
-        <v>248.7963307071152</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>248.7963307071152</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>248.7963307071152</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>102.579143924973</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1891.925584709854</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1700.23970053668</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1478.473085106206</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1189.37021823185</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.7094242895083</v>
+        <v>713.893150882433</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,19 +5059,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>1178.176104674216</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311989</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032921</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>482.6390612909563</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>334.7259677085632</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>334.7259677085632</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614387</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1788.671666052305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1533.987177846418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.570007809457</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.58045691144</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168599</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362685</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>2878.328163333972</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>3475.706650960524</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>4103.30461451513</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>1017.232257523796</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>848.2960745958886</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>698.1794351835529</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>550.2663416011598</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.2213777565</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703114</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424045</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300688</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E25" t="n">
-        <v>376.4492432300688</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>3752.175244810116</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>3752.175244810116</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>3524.185693912098</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6205,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6236,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>372.4964262156759</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>867.8220324314346</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612593</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>803.8641191832222</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876693</v>
+        <v>634.9279362553154</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2046.679019810128</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1757.603793154326</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1502.919304948439</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1213.502134911479</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>985.5125840134617</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>985.5125840134617</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>3162.891787183563</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>3790.48975073817</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>4342.399480977458</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>1016.580456911439</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656817</v>
+        <v>847.6442739835325</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>697.5276345711968</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>549.6145409888038</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>2009.464245195833</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1754.779756989947</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1465.362586952986</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1237.373036054969</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1016.580456911439</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192601</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>762.5348780504987</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>762.5348780504987</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>612.4182386381631</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>464.5051450557701</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1937.067131165133</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1682.382642959246</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1392.965472922285</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1164.975922024268</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>944.1833428807383</v>
       </c>
     </row>
     <row r="35">
@@ -6926,61 +6928,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2097.048807754114</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1807.973581098312</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1553.289092892425</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1263.871922855465</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7494,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656828</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150035</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942666</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,40 +7657,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.547769317909</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>101.1181252153542</v>
       </c>
       <c r="C13" t="n">
-        <v>104.8770068749568</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>67.31863952450735</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>69.70496293143125</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>32.9077073655013</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>172.4465594047865</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>80.62055371233355</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>112.6104454096923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>5.909506488879202</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>7.482525529412129</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>117.6435571543359</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.150513196499958</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>100.4621571004258</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>179.8192178271985</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>218.107157744638</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>52.01660326104852</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>180.3938179578232</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>149.7636788678794</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2340587438923</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637127.5500949887</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637127.5500949887</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647896.3069800537</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647896.3069800537</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647896.3069800537</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647896.3069800537</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>647896.3069800537</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>637127.5500949887</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="F2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176765</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.725617677</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176772</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176771</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176773</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.174920799221372e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
+        <v>12386.92018181818</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="J4" t="n">
         <v>12386.92018181817</v>
       </c>
-      <c r="I4" t="n">
-        <v>12386.92018181807</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181809</v>
-      </c>
       <c r="K4" t="n">
-        <v>20377.77944491159</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491154</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491155</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491159</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.7794449116</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727736.9156244798</v>
+        <v>-727736.9156244793</v>
       </c>
       <c r="C6" t="n">
         <v>601007.8301031132</v>
       </c>
       <c r="D6" t="n">
-        <v>601007.830103113</v>
+        <v>601007.8301031127</v>
       </c>
       <c r="E6" t="n">
-        <v>348046.0228846753</v>
+        <v>348046.0228846748</v>
       </c>
       <c r="F6" t="n">
-        <v>673458.4846920309</v>
+        <v>673458.4846920307</v>
       </c>
       <c r="G6" t="n">
-        <v>673458.4846920302</v>
+        <v>673458.4846920307</v>
       </c>
       <c r="H6" t="n">
-        <v>673458.4846920305</v>
+        <v>673458.4846920306</v>
       </c>
       <c r="I6" t="n">
         <v>673458.4846920308</v>
@@ -26546,19 +26548,19 @@
         <v>455927.2822947529</v>
       </c>
       <c r="K6" t="n">
-        <v>657546.1123252177</v>
+        <v>673458.4846920306</v>
       </c>
       <c r="L6" t="n">
-        <v>676973.83031885</v>
+        <v>673458.4846920301</v>
       </c>
       <c r="M6" t="n">
-        <v>591918.8023833383</v>
+        <v>588403.4567565186</v>
       </c>
       <c r="N6" t="n">
-        <v>676973.8303188501</v>
+        <v>673458.4846920306</v>
       </c>
       <c r="O6" t="n">
-        <v>676973.8303188503</v>
+        <v>673458.4846920307</v>
       </c>
       <c r="P6" t="n">
         <v>673458.4846920306</v>
@@ -26701,28 +26703,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26790,13 +26792,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>243.8901211953882</v>
       </c>
       <c r="I2" t="n">
-        <v>36.33021218757108</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>182.349471288737</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>176.0256494523911</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>112.0492461931137</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>65.52444062217292</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>13.96026753297153</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>71.50998900591765</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>68.48080693733414</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>60.64606319197642</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>53.91687892519481</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,19 +28089,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28138,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.558947096573424e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.501057674310801e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-1.790567694115452e-12</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.468650999026715e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.468650999026715e-13</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511221</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>200.3460366764704</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>689.3300812557329</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,22 +32557,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>400.8433522134838</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>268.1779244693582</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>354.9153144485699</v>
+        <v>448.9178583921313</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>318.3985571819317</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>526.2989357561987</v>
       </c>
       <c r="O39" t="n">
-        <v>333.9544784328822</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>210.3948924365565</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.8432633066776</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>57.74979223202591</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>557.9883691723996</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>266.8689447991536</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>130.3364854949993</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>220.9409070342396</v>
+        <v>314.9434509778011</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>176.2645232599133</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>394.9572236728654</v>
       </c>
       <c r="O39" t="n">
-        <v>191.3582339884378</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>68.26085851453816</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3839944.348110812</v>
+        <v>3835931.73809682</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7398263.835388332</v>
+        <v>7398263.835388331</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7176431919322</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>78.78083674902071</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>69.78817203509104</v>
+        <v>138.5234422138599</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>141.7391374254001</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>120.608807415962</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>211.7493878560656</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>293.7629027650899</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>147.2339392611586</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>35.01527374485252</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.71385496658309</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691122</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>182.4326803923967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>114.0764389318045</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>64.8004943105977</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>244.6551177944159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T28" t="n">
-        <v>215.2549371307882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>185.7223172888182</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3652565620455</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>68.41584059195296</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>165.3888470662397</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.19083539427159</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.06830131405788</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796256</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728752</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>177.7165046746309</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>170.7710039254275</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>159.738957810828</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,49 +4412,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.6709106036544</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C4" t="n">
-        <v>625.6709106036544</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4518,22 +4518,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1256.101505475442</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="W4" t="n">
-        <v>1256.101505475442</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X4" t="n">
-        <v>1028.111954577424</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y4" t="n">
-        <v>807.3193754338942</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919559</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>1329.547110979147</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D5" t="n">
-        <v>971.281412372397</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>188.3391946301248</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.7644039315074</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1391.09371846696</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1177.205447905277</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>956.4128687617472</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1914.669427940025</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>268.2622120761612</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176916</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940025</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.2446860521933</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398575</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1891.925584709854</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1700.23970053668</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1478.473085106206</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1189.37021823185</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>934.6857300259632</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>934.6857300259632</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>934.6857300259632</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.893150882433</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362698</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1398.968683817746</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1178.176104674216</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1318.472639455077</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168599</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3475.706650960524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>4103.30461451513</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1017.232257523796</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>848.2960745958886</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>698.1794351835529</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>550.2663416011598</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523796</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3752.175244810116</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3752.175244810116</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832222</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553154</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429798</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429798</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429798</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235167</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2046.679019810128</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1757.603793154326</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1502.919304948439</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1213.502134911479</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>985.5125840134617</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134617</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>2565.513299557012</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3162.891787183563</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3790.48975073817</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4342.399480977458</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.580456911439</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835325</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711968</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888038</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057736</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6624,49 +6624,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2009.464245195833</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1754.779756989947</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1465.362586952986</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1237.373036054969</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1016.580456911439</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5348780504987</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504987</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381631</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557701</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1937.067131165133</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1682.382642959246</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1392.965472922285</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1164.975922024268</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.1833428807383</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,55 +6925,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -6982,7 +6982,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407056</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263526</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>633.4413279836774</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2097.048807754114</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1807.973581098312</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1553.289092892425</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1263.871922855465</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.882371957447</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>815.0897928139171</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.1181252153542</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>145.608580030377</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>69.70496293143125</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>172.4465594047865</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>80.62055371233355</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>7.482525529412129</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T28" t="n">
-        <v>2.150513196499958</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>100.4621571004258</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>179.8192178271985</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>72.11969353038562</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.107157744638</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>52.01660326104852</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>180.3938179578232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>149.7636788678794</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="K2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="L2" t="n">
-        <v>786967.9346977555</v>
-      </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.550740372017562e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>1.174920799221372e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181805</v>
+        <v>12386.92018181806</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181808</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727736.9156244793</v>
+        <v>-727736.9156244796</v>
       </c>
       <c r="C6" t="n">
-        <v>601007.8301031132</v>
+        <v>601007.830103113</v>
       </c>
       <c r="D6" t="n">
-        <v>601007.8301031127</v>
+        <v>601007.830103113</v>
       </c>
       <c r="E6" t="n">
-        <v>348046.0228846748</v>
+        <v>347698.6436303183</v>
       </c>
       <c r="F6" t="n">
-        <v>673458.4846920307</v>
+        <v>673111.105437674</v>
       </c>
       <c r="G6" t="n">
-        <v>673458.4846920307</v>
+        <v>673111.1054376739</v>
       </c>
       <c r="H6" t="n">
-        <v>673458.4846920306</v>
+        <v>673111.1054376739</v>
       </c>
       <c r="I6" t="n">
-        <v>673458.4846920308</v>
+        <v>673111.1054376736</v>
       </c>
       <c r="J6" t="n">
-        <v>455927.2822947529</v>
+        <v>455579.9030403963</v>
       </c>
       <c r="K6" t="n">
-        <v>673458.4846920306</v>
+        <v>673111.105437674</v>
       </c>
       <c r="L6" t="n">
-        <v>673458.4846920301</v>
+        <v>673111.1054376736</v>
       </c>
       <c r="M6" t="n">
-        <v>588403.4567565186</v>
+        <v>588056.0775021617</v>
       </c>
       <c r="N6" t="n">
-        <v>673458.4846920306</v>
+        <v>673111.1054376736</v>
       </c>
       <c r="O6" t="n">
-        <v>673458.4846920307</v>
+        <v>673111.1054376737</v>
       </c>
       <c r="P6" t="n">
-        <v>673458.4846920306</v>
+        <v>673111.1054376739</v>
       </c>
     </row>
   </sheetData>
@@ -26703,25 +26703,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26922,10 +26922,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,10 +27159,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>243.8901211953882</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>270.4601319683923</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>182.349471288737</v>
+        <v>113.6142011099681</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>240.1912326468616</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>290.3129182374915</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>13.96026753297153</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>71.50998900591765</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>259.6421064805528</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>53.91687892519481</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,19 +28089,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.558947096573424e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,16 +28377,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-5.688425465021952e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-1.790567694115452e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.468650999026715e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511221</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>210.3948924365565</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>448.9178583921313</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960748</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>526.2989357561987</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
@@ -35497,19 +35497,19 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066776</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>68.26085851453816</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>314.9434509778011</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740565</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>394.9572236728654</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3835931.73809682</v>
+        <v>3837692.268399605</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>377.4526047784045</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>78.78083674902071</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>138.5234422138599</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>120.608807415962</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>87.56115536271649</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>147.2339392611586</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>174.7869190180888</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.79687029691122</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>46.29306638367412</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0567320179875</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605716619</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>123.9815576456783</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>68.17501931583824</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>215.7183996732927</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>154.0869401039758</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1546.221676928588</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1160.433424330344</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6936570343842</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.541421943132</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1408.124251906171</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1180.134701008154</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.3421218646239</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565139</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624727</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179767</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="E5" t="n">
-        <v>599.3250994197324</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="F5" t="n">
-        <v>188.3391946301248</v>
+        <v>612.0270768252096</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>196.9546266702061</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4786,22 +4786,22 @@
         <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744055</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761612</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>243.0645598847984</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
         <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4883,16 +4883,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168624</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362698</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,7 +5044,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6244,7 +6244,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6256,10 +6256,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1723.868421906481</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1469.183933700594</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1179.766763663633</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6615,7 +6615,7 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2291.319709737861</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2071.718244760802</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1782.643018104999</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1527.958529899112</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1238.541359862152</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1010.551808964134</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>145.608580030377</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.63391537253403</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>72.11969353038562</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>70.46607471595149</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>26.9393458976688</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637127.5500949887</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>637127.5500949887</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
     <row r="16">
@@ -26322,31 +26322,31 @@
         <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="I2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977561</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
@@ -26355,7 +26355,7 @@
         <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.550740372017562e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316939</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316942</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316938</v>
-      </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181806</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26441,7 +26441,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727736.9156244796</v>
+        <v>-727736.9156244798</v>
       </c>
       <c r="C6" t="n">
-        <v>601007.830103113</v>
+        <v>601007.8301031131</v>
       </c>
       <c r="D6" t="n">
-        <v>601007.830103113</v>
+        <v>601007.8301031131</v>
       </c>
       <c r="E6" t="n">
-        <v>347698.6436303183</v>
+        <v>348011.2849592398</v>
       </c>
       <c r="F6" t="n">
-        <v>673111.105437674</v>
+        <v>673423.7467665949</v>
       </c>
       <c r="G6" t="n">
-        <v>673111.1054376739</v>
+        <v>673423.7467665949</v>
       </c>
       <c r="H6" t="n">
-        <v>673111.1054376739</v>
+        <v>673423.7467665951</v>
       </c>
       <c r="I6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665948</v>
       </c>
       <c r="J6" t="n">
-        <v>455579.9030403963</v>
+        <v>455892.5443693171</v>
       </c>
       <c r="K6" t="n">
-        <v>673111.105437674</v>
+        <v>673423.7467665953</v>
       </c>
       <c r="L6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665953</v>
       </c>
       <c r="M6" t="n">
-        <v>588056.0775021617</v>
+        <v>588368.7188310833</v>
       </c>
       <c r="N6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665951</v>
       </c>
       <c r="O6" t="n">
-        <v>673111.1054376737</v>
+        <v>673423.7467665951</v>
       </c>
       <c r="P6" t="n">
-        <v>673111.1054376739</v>
+        <v>673423.7467665951</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>29.42344096330692</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>270.4601319683923</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>113.6142011099681</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>290.3129182374915</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>207.046609024604</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>259.6421064805528</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>236.1348066353647</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,16 +28377,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-5.688425465021952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
